--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3306171.565004931</v>
+        <v>3304283.983488528</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>543882.1004841129</v>
+        <v>610439.1257041622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>23.38267037520646</v>
+        <v>160.2893862652919</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.2570633735997</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>145.4378834460522</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>31.60187511706035</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>216.2839705651438</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>123.2264323245079</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>147.2810222559801</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,13 +1898,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>4.41420486738906</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>211.4593910168936</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151905</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056507</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700704</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>58.54173215151685</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801177</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437385</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897873</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700199</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.19337109393746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373699</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.3318138408822</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2673.530232053367</v>
+        <v>2304.034442887843</v>
       </c>
       <c r="U2" t="n">
-        <v>2419.768446691459</v>
+        <v>2304.034442887843</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.705559347888</v>
+        <v>1972.971555544273</v>
       </c>
       <c r="W2" t="n">
-        <v>1735.936904077774</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="X2" t="n">
-        <v>1362.471145816694</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y2" t="n">
-        <v>972.3318138408822</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>688.4561315142857</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>688.4561315142857</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>688.4561315142857</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>688.4561315142857</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>681.5106307650823</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2665.228005041394</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2665.228005041394</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2665.228005041394</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2665.228005041394</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>2291.762246780314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.055971578407</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,25 +5042,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1239.072457770252</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1015.287042559758</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870654</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870654</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870654</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870653</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870654</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,25 +5531,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>894.3337254534957</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1085.400916011946</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>796.2722772255037</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255037</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6072,19 +6072,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6145,25 +6145,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,22 +6172,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531122</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.10087974468</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387936</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018331</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6203,13 +6203,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6218,22 +6218,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,25 +6245,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765179</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706309</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336704</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905611</v>
+        <v>659.8783819731866</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440245</v>
+        <v>546.7030643266507</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440245</v>
+        <v>487.5700015473409</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>395.4177732463189</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>304.2886910297797</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>191.8742346309714</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933508</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667518</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962064</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286026</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918253</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1623.942368323877</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818807</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894291</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981892</v>
+        <v>957.9946671387015</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652453</v>
+        <v>785.7659815220552</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.5190452905611</v>
+        <v>785.7659815220552</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6683,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229678</v>
@@ -7084,22 +7084,22 @@
         <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605665</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,10 +7309,10 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,31 +7476,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>50.63978772762316</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686593</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>247.7234384564389</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>10.08817004149568</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338693</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338642</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>34.8704842381381</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571459</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752354</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.18802562960035</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752620.9540887497</v>
+        <v>752620.9540887501</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
@@ -26320,40 +26320,40 @@
         <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.948567219</v>
+      </c>
+      <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672188</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="I2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196955</v>
+        <v>671256.5266196954</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380327</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380327</v>
+        <v>677359.4601380328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284597</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086659</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284542</v>
+        <v>44162.60530284599</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758216</v>
+        <v>787.7936905759242</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905759185</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758412</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477252</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26479,28 +26479,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022284</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205394</v>
+        <v>-134526.6363205395</v>
       </c>
       <c r="C6" t="n">
         <v>455441.2428940049</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940048</v>
+        <v>455441.2428940047</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103068</v>
+        <v>27165.33332505851</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279268</v>
+        <v>552325.3698019544</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279264</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.828927927</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279272</v>
+        <v>552325.3698019545</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353338</v>
+        <v>375902.1506093614</v>
       </c>
       <c r="K6" t="n">
-        <v>511513.2965818546</v>
+        <v>511494.8028439197</v>
       </c>
       <c r="L6" t="n">
-        <v>546094.8665852443</v>
+        <v>546094.8665852447</v>
       </c>
       <c r="M6" t="n">
-        <v>421636.7581522741</v>
+        <v>421636.758152274</v>
       </c>
       <c r="N6" t="n">
         <v>556437.7733861111</v>
       </c>
       <c r="O6" t="n">
-        <v>556437.7733861109</v>
+        <v>556437.7733861111</v>
       </c>
       <c r="P6" t="n">
-        <v>512275.1680832656</v>
+        <v>512275.1680832651</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855746</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108369</v>
+        <v>12.92863350108323</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855749</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855746</v>
       </c>
     </row>
     <row r="3">
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>193.0656499824513</v>
+        <v>56.15893409236594</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.9897577250281</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>268.3462865747427</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>184.8464452405974</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>165.646399507118</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.5577376962871</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,13 +27907,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,28 +31832,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>361.1511322591788</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>425.8974584957646</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32470,7 +32470,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32792,22 +32792,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32965,7 +32965,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33263,25 +33263,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34460,7 +34460,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>593.4370977827638</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>773.8981207559848</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>592.1206839096353</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36762,16 +36762,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412292</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.51309780753</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491603</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043214</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629098</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700517</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38108,7 +38108,7 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
